--- a/data/Template_ModeloF.xlsx
+++ b/data/Template_ModeloF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\python\pgtech-data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\python\data_quality\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38204F60-8F3C-4FAF-90B9-1317CD1136B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065390B-4624-4379-95EE-A93207F0E028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{97FB2CA4-AB62-47D7-B3E2-1956D028CB71}"/>
+    <workbookView xWindow="1950" yWindow="720" windowWidth="13335" windowHeight="14760" activeTab="2" xr2:uid="{97FB2CA4-AB62-47D7-B3E2-1956D028CB71}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="4" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="339">
   <si>
     <t>Manual da importação de dados</t>
   </si>
@@ -1307,12 +1307,15 @@
   <si>
     <t>formato do arquivo esta alterado</t>
   </si>
+  <si>
+    <t>-5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,6 +1521,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1692,7 +1702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1923,6 +1933,9 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2369,12 +2382,12 @@
       <c r="A1" s="12" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="65" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
@@ -2384,53 +2397,53 @@
         <v>1</v>
       </c>
       <c r="B3" s="41"/>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -2439,9 +2452,9 @@
       <c r="B9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -4097,9 +4110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9E5A27-CFD3-E44A-9A09-9CA7EC9EDD1F}">
   <dimension ref="A1:AI200"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4113,7 +4124,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>87</v>
@@ -4178,9 +4189,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="19" t="s">
+        <v>338</v>
+      </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="C7" s="79"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
@@ -8863,7 +8876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F10EB6-462F-4643-97A4-EB678FBA2299}">
   <dimension ref="A1:AE999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -41271,56 +41284,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="e" vm="3">
+      <c r="A1" s="82" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83" t="s">
         <v>320</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="84"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">

--- a/data/Template_ModeloF.xlsx
+++ b/data/Template_ModeloF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\python\data_quality\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065390B-4624-4379-95EE-A93207F0E028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4EE45A-F108-4657-B0D1-791CA73F82E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="720" windowWidth="13335" windowHeight="14760" activeTab="2" xr2:uid="{97FB2CA4-AB62-47D7-B3E2-1956D028CB71}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="343">
   <si>
     <t>Manual da importação de dados</t>
   </si>
@@ -1310,6 +1310,18 @@
   <si>
     <t>-5</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>21312355435345</t>
+  </si>
 </sst>
 </file>
 
@@ -4110,7 +4122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9E5A27-CFD3-E44A-9A09-9CA7EC9EDD1F}">
   <dimension ref="A1:AI200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4192,13 +4206,21 @@
       <c r="A7" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>339</v>
+      </c>
       <c r="C7" s="79"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -5162,6 +5184,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
